--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1185,15 +1185,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -1265,6 +1256,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1296,9 +1296,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="11"/>
+    <tableColumn id="2" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2112,7 +2112,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 F7:F22">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2127,7 +2127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2694,7 +2694,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2718,11 +2718,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E22"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3261,7 +3261,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3283,27 +3283,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G22"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D3:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3324,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -3343,7 +3344,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -3354,10 +3355,10 @@
         <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>102</v>
@@ -3370,7 +3371,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -3381,10 +3382,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>103</v>
@@ -3397,7 +3398,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -3408,10 +3409,10 @@
         <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>104</v>
@@ -3424,7 +3425,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -3435,10 +3436,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>105</v>
@@ -3450,9 +3451,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -3463,10 +3463,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>106</v>
@@ -3478,9 +3478,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -3491,10 +3490,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>107</v>
@@ -3507,7 +3506,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -3518,10 +3517,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>108</v>
@@ -3534,7 +3533,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -3545,10 +3544,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>109</v>
@@ -3561,7 +3560,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -3572,10 +3571,10 @@
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>110</v>
@@ -3588,7 +3587,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -3599,10 +3598,10 @@
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>111</v>
@@ -3615,7 +3614,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -3626,10 +3625,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>112</v>
@@ -3642,7 +3641,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -3653,10 +3652,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>113</v>
@@ -3669,7 +3668,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -3680,10 +3679,10 @@
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>114</v>
@@ -3696,7 +3695,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -3707,10 +3706,10 @@
         <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>115</v>
@@ -3734,10 +3733,10 @@
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>116</v>
@@ -3761,10 +3760,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>117</v>
@@ -3788,10 +3787,10 @@
         <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>118</v>
@@ -3815,10 +3814,10 @@
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>119</v>
@@ -3842,10 +3841,10 @@
         <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>120</v>
@@ -3869,10 +3868,10 @@
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>121</v>
@@ -3892,7 +3891,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3922,7 +3921,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3930,7 +3929,8 @@
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
@@ -3987,10 +3987,10 @@
         <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>122</v>
@@ -4015,10 +4015,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>123</v>
@@ -4043,10 +4043,10 @@
         <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>124</v>
@@ -4070,10 +4070,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>125</v>
@@ -4097,10 +4097,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>126</v>
@@ -4124,10 +4124,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>127</v>
@@ -4151,10 +4151,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>128</v>
@@ -4178,10 +4178,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>129</v>
@@ -4205,10 +4205,10 @@
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>130</v>
@@ -4232,10 +4232,10 @@
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>131</v>
@@ -4259,10 +4259,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>132</v>
@@ -4286,10 +4286,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>133</v>
@@ -4313,10 +4313,10 @@
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>134</v>
@@ -4340,10 +4340,10 @@
         <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>135</v>
@@ -4367,10 +4367,10 @@
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>136</v>
@@ -4394,10 +4394,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>137</v>
@@ -4421,10 +4421,10 @@
         <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>138</v>
@@ -4448,10 +4448,10 @@
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>139</v>
@@ -4475,10 +4475,10 @@
         <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>140</v>
@@ -4502,10 +4502,10 @@
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>141</v>
@@ -4525,7 +4525,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4555,7 +4555,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4563,7 +4563,8 @@
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
@@ -4620,10 +4621,10 @@
         <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>142</v>
@@ -4648,10 +4649,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>143</v>
@@ -4676,10 +4677,10 @@
         <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>144</v>
@@ -4703,10 +4704,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>145</v>
@@ -4730,10 +4731,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>126</v>
@@ -4757,10 +4758,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>127</v>
@@ -4784,10 +4785,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>128</v>
@@ -4811,10 +4812,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>129</v>
@@ -4838,10 +4839,10 @@
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>146</v>
@@ -4865,10 +4866,10 @@
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>147</v>
@@ -4892,10 +4893,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>148</v>
@@ -4919,10 +4920,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>149</v>
@@ -4946,10 +4947,10 @@
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>150</v>
@@ -4973,10 +4974,10 @@
         <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>135</v>
@@ -5000,10 +5001,10 @@
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>151</v>
@@ -5027,10 +5028,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>152</v>
@@ -5054,10 +5055,10 @@
         <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>153</v>
@@ -5081,10 +5082,10 @@
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>139</v>
@@ -5108,10 +5109,10 @@
         <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>139</v>
@@ -5135,10 +5136,10 @@
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>154</v>
@@ -5158,7 +5159,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5188,7 +5189,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5196,7 +5197,8 @@
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
@@ -5253,10 +5255,10 @@
         <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>155</v>
@@ -5281,10 +5283,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>156</v>
@@ -5310,10 +5312,10 @@
         <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>157</v>
@@ -5337,10 +5339,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>158</v>
@@ -5364,10 +5366,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>126</v>
@@ -5391,10 +5393,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>127</v>
@@ -5418,10 +5420,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>128</v>
@@ -5445,10 +5447,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>129</v>
@@ -5472,10 +5474,10 @@
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>146</v>
@@ -5499,10 +5501,10 @@
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>147</v>
@@ -5526,10 +5528,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>148</v>
@@ -5553,10 +5555,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>149</v>
@@ -5580,10 +5582,10 @@
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>150</v>
@@ -5607,10 +5609,10 @@
         <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>135</v>
@@ -5634,10 +5636,10 @@
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>151</v>
@@ -5661,10 +5663,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>152</v>
@@ -5688,10 +5690,10 @@
         <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>153</v>
@@ -5715,10 +5717,10 @@
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>139</v>
@@ -5742,10 +5744,10 @@
         <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>139</v>
@@ -5769,10 +5771,10 @@
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>139</v>
@@ -5792,7 +5794,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5818,11 +5820,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5830,7 +5832,8 @@
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
@@ -5887,10 +5890,10 @@
         <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>159</v>
@@ -5915,10 +5918,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>160</v>
@@ -5944,10 +5947,10 @@
         <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>161</v>
@@ -5971,10 +5974,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>162</v>
@@ -5998,10 +6001,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>126</v>
@@ -6025,10 +6028,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>127</v>
@@ -6052,10 +6055,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>128</v>
@@ -6079,10 +6082,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>129</v>
@@ -6106,10 +6109,10 @@
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>146</v>
@@ -6133,10 +6136,10 @@
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>147</v>
@@ -6160,10 +6163,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>148</v>
@@ -6187,10 +6190,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>163</v>
@@ -6214,10 +6217,10 @@
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>164</v>
@@ -6241,10 +6244,10 @@
         <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>165</v>
@@ -6268,10 +6271,10 @@
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>166</v>
@@ -6295,10 +6298,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>167</v>
@@ -6322,10 +6325,10 @@
         <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>168</v>
@@ -6349,10 +6352,10 @@
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>169</v>
@@ -6376,10 +6379,10 @@
         <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>170</v>
@@ -6403,10 +6406,10 @@
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>171</v>
@@ -6426,7 +6429,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1185,6 +1185,15 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -1256,15 +1265,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1296,9 +1296,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="11"/>
-    <tableColumn id="2" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1576,18 +1576,18 @@
       <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -2112,7 +2112,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 F7:F22">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2127,7 +2127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2158,18 +2158,18 @@
       <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -2694,7 +2694,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2718,25 +2718,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -3261,7 +3261,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3292,19 +3292,19 @@
       <selection pane="bottomRight" activeCell="D22" sqref="D3:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -3891,7 +3891,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3917,26 +3917,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -4241,14 +4241,14 @@
         <v>131</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -4525,7 +4525,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4558,19 +4558,19 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -5159,7 +5159,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5192,19 +5192,19 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -5794,7 +5794,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5827,19 +5827,19 @@
       <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -5936,7 +5936,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -6429,7 +6429,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6462,14 +6462,14 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>

--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02172AED-C0D3-4EBC-8E7A-D04E9875BBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +75,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,12 +159,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +201,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -242,12 +243,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,12 +327,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="180">
   <si>
     <t>Year</t>
   </si>
@@ -885,12 +886,36 @@
   </si>
   <si>
     <t>49.515.000</t>
+  </si>
+  <si>
+    <t>176.787.000</t>
+  </si>
+  <si>
+    <t>161.305.000</t>
+  </si>
+  <si>
+    <t>105.955.000</t>
+  </si>
+  <si>
+    <t>77.036.000</t>
+  </si>
+  <si>
+    <t>60.850.600</t>
+  </si>
+  <si>
+    <t>17.785.000</t>
+  </si>
+  <si>
+    <t>25.000</t>
+  </si>
+  <si>
+    <t>36.475.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1181,9 +1206,73 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1289,16 +1378,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="9" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1566,14 +1655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2105,6 +2194,30 @@
         <v/>
       </c>
     </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -2112,8 +2225,23 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 F7:F22">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2126,9 +2254,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2148,14 +2276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2225,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G22" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
       <c r="I3" s="5"/>
@@ -2683,6 +2811,30 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2694,10 +2846,25 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2715,14 +2882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2792,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G22" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
@@ -3250,6 +3417,30 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3261,10 +3452,25 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3282,14 +3488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D3:E22"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="A23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3884,6 +4090,33 @@
         <v/>
       </c>
     </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" ref="H23" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -3891,12 +4124,29 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3914,14 +4164,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="A23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3999,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H22" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
       <c r="J3" s="5"/>
@@ -4514,6 +4764,33 @@
         <v>0</v>
       </c>
       <c r="H22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4525,11 +4802,28 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4548,14 +4842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4633,7 +4927,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H22" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
       <c r="J3" s="5"/>
@@ -5148,6 +5442,33 @@
         <v>0</v>
       </c>
       <c r="H22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5159,11 +5480,28 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5182,14 +5520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5787,6 +6125,33 @@
         <v/>
       </c>
     </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" ref="H23" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -5794,11 +6159,28 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5817,14 +6199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6422,6 +6804,33 @@
         <v/>
       </c>
     </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" ref="H23" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -6429,11 +6838,28 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6452,7 +6878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6548,12 +6974,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02172AED-C0D3-4EBC-8E7A-D04E9875BBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143A413E-7164-4021-8814-0C2142D1C9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="191">
   <si>
     <t>Year</t>
   </si>
@@ -471,21 +480,6 @@
 Cornucopia</t>
   </si>
   <si>
-    <t>Obv: Mint director Symbol - Horseshoe</t>
-  </si>
-  <si>
-    <t>Obv: Mint director Symbol - Bee</t>
-  </si>
-  <si>
-    <t>Obv: Mint director Symbol - Heart</t>
-  </si>
-  <si>
-    <t>Obv: Mint director Symbol - French horn</t>
-  </si>
-  <si>
-    <t>Obv: Mint director Symbol - Pentagon</t>
-  </si>
-  <si>
     <t>Obv: Marianne</t>
   </si>
   <si>
@@ -910,13 +904,64 @@
   </si>
   <si>
     <t>36.475.000</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Bee</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Horseshoe</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Heart</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - French horn</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Pentagon</t>
+  </si>
+  <si>
+    <t>27.500</t>
+  </si>
+  <si>
+    <t>24.500</t>
+  </si>
+  <si>
+    <t>39.522</t>
+  </si>
+  <si>
+    <t>39.500</t>
+  </si>
+  <si>
+    <t>51.522</t>
+  </si>
+  <si>
+    <t>35.000</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Square</t>
+  </si>
+  <si>
+    <t>Obv: tree with leaves and the olive tree</t>
+  </si>
+  <si>
+    <t>Obv: Marie Curie</t>
+  </si>
+  <si>
+    <t>Obv: Josephine Baker</t>
+  </si>
+  <si>
+    <t>Obv: Simone Veil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -972,6 +1017,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1120,7 +1169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,13 +1251,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1282,78 +1436,6 @@
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1385,9 +1467,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="9" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1656,27 +1738,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1777,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -1712,21 +1794,21 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1736,22 +1818,22 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
@@ -1760,21 +1842,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1784,24 +1866,24 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ref="G6:G22" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
@@ -1809,21 +1891,21 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1834,21 +1916,21 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1858,21 +1940,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1882,21 +1964,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1906,21 +1988,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1930,21 +2012,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1954,21 +2036,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1978,21 +2060,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2002,21 +2084,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2026,21 +2108,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2050,21 +2132,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2074,21 +2156,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2098,21 +2180,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2122,21 +2204,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2146,21 +2228,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2170,21 +2252,21 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2194,27 +2276,145 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ref="G23" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" ref="G24:G28" si="3">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2224,8 +2424,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F5 F7:F22">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F5 F7:F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2240,7 +2441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2254,8 +2455,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F23 F25 F27">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2277,27 +2478,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:G23"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2316,7 +2517,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -2333,21 +2534,21 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -2358,21 +2559,21 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2383,21 +2584,21 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2407,45 +2608,45 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2455,21 +2656,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2479,21 +2680,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2503,21 +2704,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2527,21 +2728,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2551,21 +2752,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2575,21 +2776,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2599,21 +2800,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2623,21 +2824,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2647,21 +2848,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2671,21 +2872,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2695,21 +2896,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2719,21 +2920,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2743,21 +2944,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2767,21 +2968,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2791,21 +2992,21 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2815,27 +3016,145 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" ref="G24" si="1">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G28" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2845,6 +3164,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
     <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
@@ -2860,8 +3180,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F23:F28">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2883,27 +3203,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +3242,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -2939,21 +3259,21 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -2964,21 +3284,21 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2989,21 +3309,21 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3013,21 +3333,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -3037,21 +3357,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3061,21 +3381,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3085,21 +3405,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3109,21 +3429,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3133,21 +3453,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -3157,21 +3477,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -3181,21 +3501,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3205,21 +3525,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3229,21 +3549,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3253,21 +3573,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3277,21 +3597,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3301,21 +3621,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3325,21 +3645,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3349,21 +3669,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3373,21 +3693,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3397,21 +3717,21 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3421,27 +3741,145 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" ref="G24" si="1">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G28" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3451,8 +3889,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3466,8 +3905,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F23:F28">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3489,28 +3928,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="A23:H23"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3969,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -3550,12 +3989,12 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
@@ -3564,10 +4003,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -3577,12 +4016,12 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
@@ -3591,10 +4030,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -3604,12 +4043,12 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>32</v>
@@ -3618,10 +4057,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -3631,12 +4070,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>32</v>
@@ -3645,10 +4084,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -3658,12 +4097,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>32</v>
@@ -3672,10 +4111,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -3685,12 +4124,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>32</v>
@@ -3699,10 +4138,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -3712,12 +4151,12 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>32</v>
@@ -3726,10 +4165,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -3739,12 +4178,12 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>32</v>
@@ -3753,10 +4192,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -3766,12 +4205,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>32</v>
@@ -3780,10 +4219,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -3793,12 +4232,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>32</v>
@@ -3807,10 +4246,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -3820,12 +4259,12 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>32</v>
@@ -3834,10 +4273,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -3847,12 +4286,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>32</v>
@@ -3861,10 +4300,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -3874,12 +4313,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>32</v>
@@ -3888,10 +4327,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -3901,12 +4340,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>32</v>
@@ -3915,10 +4354,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -3928,12 +4367,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>32</v>
@@ -3942,10 +4381,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -3955,12 +4394,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>32</v>
@@ -3969,10 +4408,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -3982,12 +4421,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>32</v>
@@ -3996,10 +4435,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4009,12 +4448,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>32</v>
@@ -4023,10 +4462,10 @@
         <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -4036,12 +4475,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>32</v>
@@ -4050,10 +4489,10 @@
         <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4063,12 +4502,12 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>32</v>
@@ -4077,10 +4516,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4090,12 +4529,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>32</v>
@@ -4104,16 +4543,149 @@
         <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ref="H23" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" ref="H24" si="2">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25:H28" si="3">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4123,13 +4695,14 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4140,13 +4713,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23:G28">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G23:G28">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4165,28 +4738,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="A23:H23"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4206,7 +4779,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -4226,12 +4799,12 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
@@ -4240,10 +4813,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -4254,12 +4827,12 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
@@ -4268,10 +4841,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -4282,12 +4855,12 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>32</v>
@@ -4296,10 +4869,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -4309,12 +4882,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>32</v>
@@ -4323,10 +4896,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4336,12 +4909,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>32</v>
@@ -4350,25 +4923,25 @@
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>32</v>
@@ -4377,25 +4950,25 @@
         <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>32</v>
@@ -4404,25 +4977,25 @@
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>32</v>
@@ -4431,25 +5004,25 @@
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>32</v>
@@ -4458,10 +5031,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -4471,12 +5044,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>32</v>
@@ -4485,10 +5058,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -4498,12 +5071,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>32</v>
@@ -4512,10 +5085,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -4525,12 +5098,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>32</v>
@@ -4539,10 +5112,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -4552,12 +5125,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>32</v>
@@ -4566,10 +5139,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -4579,12 +5152,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>32</v>
@@ -4593,25 +5166,25 @@
         <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>32</v>
@@ -4620,10 +5193,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4633,12 +5206,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>32</v>
@@ -4647,10 +5220,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -4660,12 +5233,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>32</v>
@@ -4674,10 +5247,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4687,12 +5260,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>32</v>
@@ -4701,25 +5274,25 @@
         <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>32</v>
@@ -4728,10 +5301,10 @@
         <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4741,12 +5314,12 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>32</v>
@@ -4755,10 +5328,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4768,12 +5341,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>32</v>
@@ -4782,16 +5355,149 @@
         <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" ref="H24" si="1">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25:H28" si="2">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4801,8 +5507,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4818,12 +5525,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23:G28">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G23:G28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4843,28 +5550,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E25:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4884,7 +5591,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -4904,12 +5611,12 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
@@ -4918,10 +5625,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1">
         <v>4</v>
@@ -4932,12 +5639,12 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
@@ -4946,10 +5653,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -4960,12 +5667,12 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>32</v>
@@ -4974,10 +5681,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -4987,12 +5694,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>32</v>
@@ -5001,10 +5708,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5014,12 +5721,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>32</v>
@@ -5028,25 +5735,25 @@
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>32</v>
@@ -5055,25 +5762,25 @@
         <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>32</v>
@@ -5082,25 +5789,25 @@
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>32</v>
@@ -5109,25 +5816,25 @@
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>32</v>
@@ -5136,25 +5843,25 @@
         <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>32</v>
@@ -5163,25 +5870,25 @@
         <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>32</v>
@@ -5190,25 +5897,25 @@
         <v>11</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>32</v>
@@ -5217,25 +5924,25 @@
         <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>32</v>
@@ -5244,25 +5951,25 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>32</v>
@@ -5271,25 +5978,25 @@
         <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>32</v>
@@ -5298,25 +6005,25 @@
         <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>32</v>
@@ -5325,25 +6032,25 @@
         <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>32</v>
@@ -5352,25 +6059,25 @@
         <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>32</v>
@@ -5379,25 +6086,25 @@
         <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>32</v>
@@ -5406,25 +6113,25 @@
         <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>32</v>
@@ -5433,10 +6140,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5446,12 +6153,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>32</v>
@@ -5460,16 +6167,149 @@
         <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" ref="H24:H27" si="1">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" ref="H28" si="2">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5479,12 +6319,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G22 G24 G26 G28">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G22">
+  <conditionalFormatting sqref="G3:G22 G24 G26 G28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5496,12 +6337,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25 G27">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G23 G25 G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5521,28 +6362,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5562,7 +6403,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -5582,12 +6423,12 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
@@ -5596,10 +6437,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -5610,12 +6451,12 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
@@ -5624,10 +6465,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -5639,12 +6480,12 @@
       <c r="I4" s="12"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>32</v>
@@ -5653,10 +6494,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -5666,12 +6507,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>32</v>
@@ -5680,10 +6521,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -5693,12 +6534,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>32</v>
@@ -5707,25 +6548,25 @@
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>32</v>
@@ -5734,25 +6575,25 @@
         <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>32</v>
@@ -5761,25 +6602,25 @@
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>32</v>
@@ -5788,25 +6629,25 @@
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>32</v>
@@ -5815,25 +6656,25 @@
         <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>32</v>
@@ -5842,25 +6683,25 @@
         <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>32</v>
@@ -5869,25 +6710,25 @@
         <v>11</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>32</v>
@@ -5896,25 +6737,25 @@
         <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>32</v>
@@ -5923,25 +6764,25 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>32</v>
@@ -5950,25 +6791,25 @@
         <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>32</v>
@@ -5977,25 +6818,25 @@
         <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>32</v>
@@ -6004,25 +6845,25 @@
         <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>32</v>
@@ -6031,25 +6872,25 @@
         <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>32</v>
@@ -6058,25 +6899,25 @@
         <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>32</v>
@@ -6085,25 +6926,25 @@
         <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>32</v>
@@ -6112,25 +6953,25 @@
         <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>32</v>
@@ -6139,16 +6980,149 @@
         <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H23" s="3" t="str">
-        <f t="shared" ref="H23" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H23:H24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25:H27" si="2">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" ref="H28" si="3">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -6159,11 +7133,45 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G27">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6175,12 +7183,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G28">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6200,28 +7208,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6241,7 +7249,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -6261,12 +7269,12 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
@@ -6275,10 +7283,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -6289,12 +7297,12 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
@@ -6303,10 +7311,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -6318,12 +7326,12 @@
       <c r="I4" s="12"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>32</v>
@@ -6332,10 +7340,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -6345,12 +7353,12 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>32</v>
@@ -6359,10 +7367,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -6372,12 +7380,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>32</v>
@@ -6386,25 +7394,25 @@
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>32</v>
@@ -6413,25 +7421,25 @@
         <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>32</v>
@@ -6440,25 +7448,25 @@
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>32</v>
@@ -6467,25 +7475,25 @@
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>32</v>
@@ -6494,25 +7502,25 @@
         <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>32</v>
@@ -6521,25 +7529,25 @@
         <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>32</v>
@@ -6548,25 +7556,25 @@
         <v>11</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>32</v>
@@ -6575,25 +7583,25 @@
         <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>32</v>
@@ -6602,10 +7610,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -6615,12 +7623,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>32</v>
@@ -6629,10 +7637,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -6642,12 +7650,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>32</v>
@@ -6656,10 +7664,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -6669,12 +7677,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>32</v>
@@ -6683,10 +7691,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -6696,12 +7704,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>32</v>
@@ -6710,10 +7718,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -6723,12 +7731,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>32</v>
@@ -6737,10 +7745,10 @@
         <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -6750,12 +7758,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>32</v>
@@ -6764,10 +7772,10 @@
         <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -6776,13 +7784,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>32</v>
@@ -6791,10 +7801,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -6804,12 +7814,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>32</v>
@@ -6818,18 +7828,163 @@
         <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" ref="H23:H24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="str">
-        <f t="shared" ref="H23" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+      <c r="F24" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25:H26" si="2">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" ref="H27" si="3">IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" ref="H28" si="4">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+    </row>
+    <row r="37" spans="19:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+    </row>
+    <row r="49" spans="19:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6837,12 +7992,30 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G22 G24 G26">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G22">
+  <conditionalFormatting sqref="G3:G22 G24 G26">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 G25 G27">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 G25 G27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6854,12 +8027,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6888,14 +8061,14 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -6906,7 +8079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -6917,7 +8090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -6928,7 +8101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -6939,7 +8112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -6950,7 +8123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -6961,7 +8134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>6</v>
       </c>

--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143A413E-7164-4021-8814-0C2142D1C9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D378A-B704-49D6-8937-BA5D2EB7E02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4130" yWindow="2210" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -383,9 +383,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -952,6 +949,9 @@
   </si>
   <si>
     <t>Obv: Simone Veil</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1236,6 +1236,7 @@
     <xf numFmtId="3" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,21 +1252,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1427,15 +1428,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1467,9 +1459,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1740,11 +1732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1759,38 +1751,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1799,16 +1791,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1823,16 +1815,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1847,16 +1839,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1871,19 +1863,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ref="G6:G22" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
@@ -1896,16 +1888,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1921,16 +1913,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1945,16 +1937,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1969,16 +1961,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1993,16 +1985,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2017,16 +2009,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2041,16 +2033,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2065,16 +2057,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2089,16 +2081,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2113,16 +2105,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2137,16 +2129,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2161,16 +2153,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2185,16 +2177,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2209,16 +2201,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2233,16 +2225,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2257,16 +2249,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2281,16 +2273,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2305,16 +2297,16 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2329,16 +2321,16 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2353,16 +2345,16 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2377,16 +2369,16 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2401,13 +2393,13 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="1">
@@ -2426,7 +2418,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5 F7:F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2441,7 +2433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2456,7 +2448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23 F25 F27">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2484,7 +2476,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25:D28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2499,38 +2491,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2539,16 +2531,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -2564,16 +2556,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2589,16 +2581,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2613,19 +2605,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2637,16 +2629,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2661,16 +2653,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2685,16 +2677,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2709,16 +2701,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2733,16 +2725,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2757,16 +2749,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2781,16 +2773,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2805,16 +2797,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2829,16 +2821,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2853,16 +2845,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2877,16 +2869,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2901,16 +2893,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2925,16 +2917,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2949,16 +2941,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2973,16 +2965,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2997,16 +2989,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3021,16 +3013,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3045,16 +3037,16 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3069,16 +3061,16 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3093,16 +3085,16 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3117,16 +3109,16 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -3141,13 +3133,738 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F28">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="C3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" ref="G24" si="1">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G28" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="D28" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="1">
@@ -3201,731 +3918,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25:D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" ref="G24" si="1">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" ref="G25:G28" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
-        <v>2024</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F28">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
@@ -3934,7 +3926,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25:E28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3950,42 +3942,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -3994,19 +3986,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -4021,19 +4013,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -4048,19 +4040,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -4075,19 +4067,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4102,19 +4094,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -4129,19 +4121,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4156,19 +4148,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -4183,19 +4175,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -4210,19 +4202,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -4237,19 +4229,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -4264,19 +4256,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -4291,19 +4283,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -4318,19 +4310,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -4345,19 +4337,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -4372,19 +4364,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4399,19 +4391,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -4426,19 +4418,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4453,19 +4445,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -4480,19 +4472,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4507,19 +4499,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4534,19 +4526,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -4561,19 +4553,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -4588,19 +4580,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -4615,19 +4607,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -4642,19 +4634,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -4669,16 +4661,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="1">
@@ -4697,7 +4689,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4714,7 +4706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G28">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4744,7 +4736,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25:E28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4760,42 +4752,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4804,19 +4796,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -4832,19 +4824,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -4860,19 +4852,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -4887,19 +4879,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4914,22 +4906,22 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4941,22 +4933,22 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4968,22 +4960,22 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4995,22 +4987,22 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5022,19 +5014,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5049,19 +5041,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -5076,19 +5068,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -5103,19 +5095,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5130,19 +5122,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5157,22 +5149,22 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5184,19 +5176,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5211,19 +5203,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5238,19 +5230,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5265,22 +5257,22 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5292,19 +5284,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5319,19 +5311,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5346,19 +5338,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -5373,19 +5365,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -5400,19 +5392,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -5427,19 +5419,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -5454,19 +5446,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -5481,16 +5473,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="1">
@@ -5509,7 +5501,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5526,7 +5518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G28">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5556,7 +5548,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E25:E28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5572,42 +5564,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5616,19 +5608,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3" s="1">
         <v>4</v>
@@ -5644,19 +5636,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -5672,19 +5664,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -5699,19 +5691,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5726,22 +5718,22 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5753,22 +5745,22 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5780,22 +5772,22 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5807,22 +5799,22 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5834,22 +5826,22 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5861,22 +5853,22 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5888,22 +5880,22 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5915,22 +5907,22 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5942,22 +5934,22 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5969,22 +5961,22 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5996,22 +5988,22 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6023,22 +6015,22 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6050,22 +6042,22 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6077,22 +6069,22 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6104,22 +6096,22 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6131,19 +6123,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -6158,19 +6150,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -6185,19 +6177,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -6212,19 +6204,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -6239,19 +6231,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -6266,19 +6258,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -6293,16 +6285,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="1">
@@ -6321,7 +6313,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22 G24 G26 G28">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6338,7 +6330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23 G25 G27">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6368,7 +6360,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25:E28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6384,42 +6376,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6428,19 +6420,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -6456,19 +6448,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -6485,19 +6477,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -6512,19 +6504,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -6539,22 +6531,22 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6566,22 +6558,22 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6593,22 +6585,22 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6620,22 +6612,22 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6647,22 +6639,22 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6674,22 +6666,22 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6701,22 +6693,22 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6728,22 +6720,22 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6755,22 +6747,22 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6782,22 +6774,22 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6809,22 +6801,22 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6836,22 +6828,22 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6863,22 +6855,22 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6890,22 +6882,22 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6917,22 +6909,22 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6944,22 +6936,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6971,22 +6963,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ref="H23:H24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
@@ -6998,19 +6990,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -7025,19 +7017,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -7052,19 +7044,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -7079,19 +7071,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -7106,16 +7098,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="1">
@@ -7133,7 +7125,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7150,7 +7142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7167,7 +7159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7184,7 +7176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7210,11 +7202,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7230,42 +7222,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -7274,19 +7266,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -7302,19 +7294,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -7331,19 +7323,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -7358,19 +7350,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -7385,22 +7377,22 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7412,22 +7404,22 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7439,22 +7431,22 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7466,22 +7458,22 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7493,22 +7485,22 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7520,22 +7512,22 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7547,22 +7539,22 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7574,22 +7566,22 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7601,19 +7593,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -7628,19 +7620,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -7655,19 +7647,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -7682,19 +7674,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -7709,19 +7701,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -7736,19 +7728,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -7763,19 +7755,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -7784,27 +7776,27 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -7819,19 +7811,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -7846,19 +7838,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -7873,19 +7865,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -7900,19 +7892,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -7927,19 +7919,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -7954,16 +7946,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="1">
@@ -7975,16 +7967,16 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
     </row>
     <row r="37" spans="19:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
     </row>
     <row r="49" spans="19:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8070,13 +8062,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8084,10 +8076,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8095,10 +8087,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8106,10 +8098,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8117,10 +8109,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8128,10 +8120,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8139,10 +8131,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D378A-B704-49D6-8937-BA5D2EB7E02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE97A6A-3372-4668-9158-55B91BA2B1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4130" yWindow="2210" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1732,11 +1732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2447,7 +2447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25 F27">
+  <conditionalFormatting sqref="F25 F23 F27">
     <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
@@ -3201,7 +3201,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3293,7 +3293,7 @@
         <v>77</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3414,7 +3414,7 @@
         <v>82</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5544,11 +5544,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5706,7 +5706,7 @@
         <v>139</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6334,7 +6334,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25 G27">
+  <conditionalFormatting sqref="G25 G23 G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7206,7 +7206,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7365,7 +7365,7 @@
         <v>156</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8007,7 +8007,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25 G27">
+  <conditionalFormatting sqref="G25 G23 G27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE97A6A-3372-4668-9158-55B91BA2B1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DAAD62-5431-428A-A068-00E28F530635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -3197,11 +3197,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3510,7 +3510,7 @@
         <v>86</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3926,7 +3926,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4352,7 +4352,7 @@
         <v>109</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4379,7 +4379,7 @@
         <v>110</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5544,7 +5544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DAAD62-5431-428A-A068-00E28F530635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68387CD6-3E92-47EB-8134-D58252D196CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2447,7 +2447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F23 F27">
+  <conditionalFormatting sqref="F23 F25 F27">
     <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
@@ -3201,7 +3201,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3630,7 @@
         <v>91</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6334,7 +6334,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23 G27">
+  <conditionalFormatting sqref="G23 G25 G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8007,7 +8007,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23 G27">
+  <conditionalFormatting sqref="G23 G25 G27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68387CD6-3E92-47EB-8134-D58252D196CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B1F182-561F-4A65-B1D5-9E6E0E2029DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2447,7 +2447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25 F27">
+  <conditionalFormatting sqref="F25 F23 F27">
     <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
@@ -3201,7 +3201,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3414,7 +3414,7 @@
         <v>82</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6334,7 +6334,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25 G27">
+  <conditionalFormatting sqref="G25 G23 G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8007,7 +8007,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25 G27">
+  <conditionalFormatting sqref="G25 G23 G27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B1F182-561F-4A65-B1D5-9E6E0E2029DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2FFE48-8DA2-4BBE-B070-7809BA3F9177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1732,11 +1732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1803,7 +1803,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G5" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -2447,7 +2447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F23 F27">
+  <conditionalFormatting sqref="F23 F25 F27">
     <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
@@ -3197,7 +3197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6334,7 +6334,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23 G27">
+  <conditionalFormatting sqref="G23 G25 G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8007,7 +8007,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23 G27">
+  <conditionalFormatting sqref="G23 G25 G27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2FFE48-8DA2-4BBE-B070-7809BA3F9177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B225C1E9-3252-422A-A808-32EE9034E752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="192">
   <si>
     <t>Year</t>
   </si>
@@ -389,12 +399,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -465,9 +469,6 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
-  </si>
-  <si>
-    <t>Subtype_3</t>
   </si>
   <si>
     <t>FR</t>
@@ -952,6 +953,18 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -1021,6 +1034,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1169,7 +1184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1237,6 +1252,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1736,53 +1754,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1791,16 +1808,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1815,16 +1832,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1839,16 +1856,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1863,19 +1880,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ref="G6:G22" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
@@ -1888,16 +1905,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1913,16 +1930,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1937,16 +1954,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1961,16 +1978,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1985,16 +2002,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2009,16 +2026,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2033,16 +2050,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2057,16 +2074,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2081,16 +2098,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2105,16 +2122,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2129,16 +2146,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2153,16 +2170,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2177,16 +2194,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2201,16 +2218,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2225,16 +2242,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2249,16 +2266,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2273,16 +2290,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2297,16 +2314,16 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2321,16 +2338,16 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2345,16 +2362,16 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2369,16 +2386,16 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2393,13 +2410,13 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="1">
@@ -2411,9 +2428,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2447,7 +2464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25 F27">
+  <conditionalFormatting sqref="F25 F23 F27">
     <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
@@ -2476,53 +2493,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2531,16 +2547,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -2556,16 +2572,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2581,16 +2597,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2605,19 +2621,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2629,16 +2645,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2653,16 +2669,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2677,16 +2693,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2701,16 +2717,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2725,16 +2741,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2749,16 +2765,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2773,16 +2789,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2797,16 +2813,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2821,16 +2837,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2845,16 +2861,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2869,16 +2885,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2893,16 +2909,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2917,16 +2933,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2941,16 +2957,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2965,16 +2981,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2989,16 +3005,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3013,16 +3029,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3037,16 +3053,16 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3061,16 +3077,16 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3085,16 +3101,16 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3109,16 +3125,16 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -3133,13 +3149,13 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="1">
@@ -3151,9 +3167,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3201,53 +3217,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3256,16 +3271,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -3281,16 +3296,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -3306,16 +3321,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3330,16 +3345,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -3354,16 +3369,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3378,16 +3393,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3402,16 +3417,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3426,16 +3441,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3450,16 +3465,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -3474,16 +3489,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -3498,16 +3513,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -3522,16 +3537,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3546,16 +3561,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3570,16 +3585,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3594,16 +3609,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3618,16 +3633,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -3642,16 +3657,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3666,16 +3681,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3690,16 +3705,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3714,16 +3729,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3738,16 +3753,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3762,16 +3777,16 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3786,16 +3801,16 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3810,16 +3825,16 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3834,16 +3849,16 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -3858,13 +3873,13 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="1">
@@ -3876,9 +3891,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3923,61 +3938,59 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -3986,19 +3999,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -4013,19 +4026,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -4040,19 +4053,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -4067,19 +4080,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4094,19 +4107,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -4121,19 +4134,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4148,19 +4161,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -4175,19 +4188,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -4202,19 +4215,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -4229,19 +4242,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -4256,19 +4269,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -4283,19 +4296,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -4310,19 +4323,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -4337,19 +4350,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -4364,19 +4377,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -4391,19 +4404,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -4418,19 +4431,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4445,19 +4458,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -4472,19 +4485,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4499,19 +4512,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4526,19 +4539,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -4553,19 +4566,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -4580,19 +4593,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -4607,19 +4620,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -4634,19 +4647,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -4661,16 +4674,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="1">
@@ -4682,9 +4695,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4736,58 +4749,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4796,19 +4807,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -4824,19 +4835,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -4852,19 +4863,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -4879,19 +4890,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4906,22 +4917,22 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4933,22 +4944,22 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4960,22 +4971,22 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4987,22 +4998,22 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5014,19 +5025,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5041,19 +5052,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -5068,19 +5079,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -5095,19 +5106,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5122,19 +5133,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5149,22 +5160,22 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5176,19 +5187,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5203,19 +5214,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5230,19 +5241,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5257,22 +5268,22 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5284,19 +5295,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5311,19 +5322,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5338,19 +5349,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -5365,19 +5376,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -5392,19 +5403,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -5419,19 +5430,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -5446,19 +5457,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -5473,16 +5484,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="1">
@@ -5494,9 +5505,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5548,58 +5559,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5608,19 +5617,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1">
         <v>4</v>
@@ -5636,19 +5645,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -5664,19 +5673,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -5691,19 +5700,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -5718,22 +5727,22 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5745,22 +5754,22 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5772,22 +5781,22 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5799,22 +5808,22 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5826,22 +5835,22 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5853,22 +5862,22 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5880,22 +5889,22 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5907,22 +5916,22 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5934,22 +5943,22 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5961,22 +5970,22 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5988,22 +5997,22 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6015,22 +6024,22 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6042,22 +6051,22 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6069,22 +6078,22 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6096,22 +6105,22 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6123,19 +6132,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -6150,19 +6159,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -6177,19 +6186,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -6204,19 +6213,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -6231,19 +6240,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -6258,19 +6267,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -6285,16 +6294,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="1">
@@ -6306,9 +6315,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6334,7 +6343,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25 G27">
+  <conditionalFormatting sqref="G25 G23 G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6360,58 +6369,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6420,19 +6427,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -6448,19 +6455,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -6477,19 +6484,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -6504,19 +6511,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -6531,22 +6538,22 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6558,22 +6565,22 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6585,22 +6592,22 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6612,22 +6619,22 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6639,22 +6646,22 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6666,22 +6673,22 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6693,22 +6700,22 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6720,22 +6727,22 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6747,22 +6754,22 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6774,22 +6781,22 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6801,22 +6808,22 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6828,22 +6835,22 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6855,22 +6862,22 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6882,22 +6889,22 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6909,22 +6916,22 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6936,22 +6943,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6963,22 +6970,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ref="H23:H24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
@@ -6990,19 +6997,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -7017,19 +7024,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -7044,19 +7051,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -7071,19 +7078,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -7098,16 +7105,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="1">
@@ -7119,9 +7126,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
@@ -7206,58 +7213,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -7266,19 +7271,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -7294,19 +7299,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -7323,19 +7328,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -7350,19 +7355,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -7377,22 +7382,22 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7404,22 +7409,22 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7431,22 +7436,22 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7458,22 +7463,22 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7485,22 +7490,22 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7512,22 +7517,22 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7539,22 +7544,22 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7566,22 +7571,22 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7593,19 +7598,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -7620,19 +7625,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -7647,19 +7652,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -7674,19 +7679,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -7701,19 +7706,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -7728,19 +7733,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -7755,19 +7760,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -7784,19 +7789,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -7811,19 +7816,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -7838,19 +7843,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -7865,19 +7870,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -7892,19 +7897,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -7919,19 +7924,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -7946,16 +7951,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="1">
@@ -7979,9 +7984,9 @@
       <c r="T49" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -8007,7 +8012,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25 G27">
+  <conditionalFormatting sqref="G25 G23 G27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8062,13 +8067,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8076,10 +8081,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8087,10 +8092,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8098,10 +8103,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8109,10 +8114,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8120,10 +8125,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8131,10 +8136,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
